--- a/docs/shrcore/shr-core-ReferralRequest-model.xlsx
+++ b/docs/shrcore/shr-core-ReferralRequest-model.xlsx
@@ -301,17 +301,30 @@
 For an Observation, the Code describes the aspect or property of the subject being observed or measured. The Code is the 'question code' that pairs to the 'answer' contained in the Value.</t>
   </si>
   <si>
-    <t>shr-core-ReferralRequest-model.referralBasedOn[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model]]}
+    <t>shr-core-ReferralRequest-model.serviceBasedOn[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model]]}
 </t>
   </si>
   <si>
-    <t>Indicates any plans, proposals or orders that this request is intended to satisfy - in whole or in part.</t>
-  </si>
-  <si>
-    <t>shr-core-ReferralRequest-model.referralBasedOnShr-core-ReferralRequest-model</t>
+    <t>The original or initiating plan, proposal, or request.</t>
+  </si>
+  <si>
+    <t>shr-core-ReferralRequest-model.serviceBasedOnShr-core-ServiceRequest-model</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
+  </si>
+  <si>
+    <t>shr-core-ReferralRequest-model.serviceBasedOnShr-core-ReferralRequest-model</t>
   </si>
   <si>
     <t>ReferralRequest</t>
@@ -321,7 +334,7 @@
 </t>
   </si>
   <si>
-    <t>shr-core-ReferralRequest-model.referralBasedOnShr-core-ProcedureRequest-model</t>
+    <t>shr-core-ReferralRequest-model.serviceBasedOnShr-core-ProcedureRequest-model</t>
   </si>
   <si>
     <t>ProcedureRequest</t>
@@ -334,19 +347,6 @@
     <t>A request for a procedure to be performed. May be a proposal or an order.</t>
   </si>
   <si>
-    <t>shr-core-ReferralRequest-model.referralBasedOnShr-core-ServiceRequest-model</t>
-  </si>
-  <si>
-    <t>ServiceRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model]]}
-</t>
-  </si>
-  <si>
-    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
-  </si>
-  <si>
     <t>shr-core-ReferralRequest-model.code</t>
   </si>
   <si>
@@ -433,7 +433,7 @@
     <t>Request(s) replaced by this request</t>
   </si>
   <si>
-    <t>shr-core-ReferralRequest-model.requisition</t>
+    <t>shr-core-ReferralRequest-model.groupIdentifier</t>
   </si>
   <si>
     <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
@@ -722,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2358,10 +2358,10 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>36</v>
@@ -2454,13 +2454,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3521,7 +3521,7 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>128</v>
